--- a/untitled folder/Monthly_SEO_Metrics.xlsx
+++ b/untitled folder/Monthly_SEO_Metrics.xlsx
@@ -9,10 +9,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indexed Pages" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="404s" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Queries Last 3 Months" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top Pages Last 3 Months" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total Clicks Last 3 Months" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,393 +602,74 @@
         <v>1758</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Last Crawled</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.turnkeyofficespace.com/taxonomy/term/4830</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2017/04/03/smart-strategies-to-improve-employee-retention/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2017/10/16/be-prepared-for-these-business-growth-challenges/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2017/10/30/hiring-for-growth-how-to-find-people-who-add-maximum-value/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2017/10/02/its-time-to-take-marketing-your-business-seriously/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/category/business/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2018/03/05/why-your-office-needs-a-third-space/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/page/12/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://blog.turnkeyofficespace.com/2017/09/04/growing-your-company-through-partnerships-and-alliances/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.turnkeyofficespace.com/south-carolina/myrtle-beach/1000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Top Queries</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Clicks</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>turnkey office space</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>362</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>we hear it all the time</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Top Pages</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Clicks</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Last Updated</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Total Clicks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>04/07/24</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>04/08/24</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>04/08/24</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1510</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1758</v>
       </c>
     </row>
   </sheetData>
